--- a/image/structuremap.xlsx
+++ b/image/structuremap.xlsx
@@ -1385,45 +1385,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.2734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.7109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.73046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="77.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.06640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/structuremap.xlsx
+++ b/image/structuremap.xlsx
@@ -169,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -394,10 +394,6 @@
     <t>StructureMap.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Business version of the structure map</t>
   </si>
   <si>
@@ -806,6 +802,10 @@
     <t>StructureMap.group.name</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
     <t>Human-readable label</t>
   </si>
   <si>
@@ -997,7 +997,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Default value if no value exists</t>
@@ -1385,45 +1385,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.45703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="77.7109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.91796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2793,16 +2793,16 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2870,10 +2870,10 @@
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>43</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2904,19 +2904,19 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>43</v>
@@ -2965,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>49</v>
@@ -2974,7 +2974,7 @@
         <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>43</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3017,16 +3017,16 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3076,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3094,7 +3094,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3131,13 +3131,13 @@
         <v>68</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3163,52 +3163,52 @@
         <v>43</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>43</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3239,19 +3239,19 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3300,7 +3300,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3318,10 +3318,10 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>43</v>
@@ -3329,11 +3329,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3352,16 +3352,16 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3411,7 +3411,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3429,10 +3429,10 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>43</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3463,19 +3463,19 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3524,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3542,10 +3542,10 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>43</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3576,16 +3576,16 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3635,7 +3635,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3653,7 +3653,7 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3687,16 +3687,16 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3746,7 +3746,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3764,7 +3764,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3798,19 +3798,19 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -3859,7 +3859,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3877,7 +3877,7 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>43</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3911,16 +3911,16 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3946,14 +3946,14 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3988,7 +3988,7 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>43</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4022,16 +4022,16 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4081,7 +4081,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4099,10 +4099,10 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>119</v>
@@ -4110,11 +4110,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4133,17 +4133,17 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4192,7 +4192,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4210,7 +4210,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4244,16 +4244,16 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4303,7 +4303,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4315,7 +4315,7 @@
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4355,13 +4355,13 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4412,7 +4412,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4470,7 +4470,7 @@
         <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>97</v>
@@ -4523,7 +4523,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4552,11 +4552,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4578,10 +4578,10 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>97</v>
@@ -4636,7 +4636,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4688,13 +4688,13 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4745,7 +4745,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>49</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4800,10 +4800,10 @@
         <v>68</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4830,14 +4830,14 @@
         <v>43</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>49</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4906,16 +4906,16 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4965,7 +4965,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5017,13 +5017,13 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5074,7 +5074,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5126,13 +5126,13 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5183,7 +5183,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5235,13 +5235,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5292,7 +5292,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>49</v>
@@ -5304,7 +5304,7 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5344,13 +5344,13 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5401,7 +5401,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5459,7 +5459,7 @@
         <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>97</v>
@@ -5512,7 +5512,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5541,11 +5541,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5567,10 +5567,10 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>97</v>
@@ -5625,7 +5625,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5677,7 +5677,7 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>253</v>
@@ -5734,7 +5734,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>49</v>
@@ -5786,7 +5786,7 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>256</v>
@@ -5930,7 +5930,7 @@
         <v>43</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>262</v>
@@ -6006,7 +6006,7 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>265</v>
@@ -6115,7 +6115,7 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>268</v>
@@ -6186,7 +6186,7 @@
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>43</v>
@@ -6226,13 +6226,13 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6283,7 +6283,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6341,7 +6341,7 @@
         <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>97</v>
@@ -6394,7 +6394,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6449,10 +6449,10 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>97</v>
@@ -6507,7 +6507,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6559,7 +6559,7 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>275</v>
@@ -6668,7 +6668,7 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>278</v>
@@ -6810,7 +6810,7 @@
         <v>43</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>282</v>
@@ -6886,7 +6886,7 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>285</v>
@@ -6995,7 +6995,7 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>288</v>
@@ -7064,7 +7064,7 @@
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>43</v>
@@ -7104,13 +7104,13 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7161,7 +7161,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7219,7 +7219,7 @@
         <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>97</v>
@@ -7272,7 +7272,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7327,10 +7327,10 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>97</v>
@@ -7385,7 +7385,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7437,7 +7437,7 @@
         <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>294</v>
@@ -7546,7 +7546,7 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>297</v>
@@ -7615,7 +7615,7 @@
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>43</v>
@@ -7655,13 +7655,13 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7712,7 +7712,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7770,7 +7770,7 @@
         <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>97</v>
@@ -7823,7 +7823,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7878,10 +7878,10 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>97</v>
@@ -7936,7 +7936,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7988,7 +7988,7 @@
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>303</v>
@@ -8206,7 +8206,7 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>310</v>
@@ -8315,7 +8315,7 @@
         <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>313</v>
@@ -8535,7 +8535,7 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>321</v>
@@ -8677,7 +8677,7 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>326</v>
@@ -8753,7 +8753,7 @@
         <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>329</v>
@@ -8862,7 +8862,7 @@
         <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>332</v>
@@ -8971,7 +8971,7 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>335</v>
@@ -9080,7 +9080,7 @@
         <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>338</v>
@@ -9191,7 +9191,7 @@
         <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>342</v>
@@ -9300,13 +9300,13 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9357,7 +9357,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9415,7 +9415,7 @@
         <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>97</v>
@@ -9468,7 +9468,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9523,10 +9523,10 @@
         <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>97</v>
@@ -9581,7 +9581,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9633,7 +9633,7 @@
         <v>50</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>303</v>
@@ -9775,7 +9775,7 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>351</v>
@@ -9851,7 +9851,7 @@
         <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>354</v>
@@ -9960,7 +9960,7 @@
         <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>357</v>
@@ -10102,7 +10102,7 @@
         <v>43</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>362</v>
@@ -10178,7 +10178,7 @@
         <v>50</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>365</v>
@@ -10320,7 +10320,7 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>370</v>
@@ -10396,7 +10396,7 @@
         <v>50</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>373</v>
@@ -10465,7 +10465,7 @@
         <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>43</v>
@@ -10505,13 +10505,13 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10562,7 +10562,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10620,7 +10620,7 @@
         <v>95</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>97</v>
@@ -10673,7 +10673,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10728,10 +10728,10 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>97</v>
@@ -10786,7 +10786,7 @@
         <v>43</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11056,7 +11056,7 @@
         <v>50</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>386</v>
@@ -11125,7 +11125,7 @@
         <v>43</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>43</v>
@@ -11165,13 +11165,13 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11222,7 +11222,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11280,7 +11280,7 @@
         <v>95</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>97</v>
@@ -11333,7 +11333,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11388,10 +11388,10 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>97</v>
@@ -11446,7 +11446,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11498,7 +11498,7 @@
         <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>392</v>
@@ -11607,7 +11607,7 @@
         <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>395</v>
@@ -11716,7 +11716,7 @@
         <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>285</v>
